--- a/实施周数据-李登林组/1月/5周/实施周数据-李登林组-张晨.xlsx
+++ b/实施周数据-李登林组/1月/5周/实施周数据-李登林组-张晨.xlsx
@@ -556,10 +556,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="39">
@@ -674,9 +674,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,37 +704,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,6 +725,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -746,15 +772,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,52 +817,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -821,16 +824,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -893,31 +893,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,37 +929,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,49 +1013,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,13 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,6 +1430,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1441,6 +1450,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,26 +1495,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1506,9 +1504,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,10 +1518,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1530,144 +1530,144 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2823,10 +2823,10 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O51" sqref="O51"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4808,7 +4808,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" s="19">
         <v>43130</v>
